--- a/gerenciamento de tempo.xlsx
+++ b/gerenciamento de tempo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Atividade</t>
   </si>
@@ -50,21 +50,12 @@
     <t>D</t>
   </si>
   <si>
-    <t>Definir funcionalidades</t>
-  </si>
-  <si>
-    <t>Definir telas e campos</t>
-  </si>
-  <si>
     <t>Dias</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>Criar telas com os campos</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -92,60 +83,9 @@
     <t>K</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Testar fluxo de navegação entre telas</t>
-  </si>
-  <si>
-    <t>Testar Validação de campos</t>
-  </si>
-  <si>
-    <t>Testar Rotas</t>
-  </si>
-  <si>
-    <t>Testar Banco</t>
-  </si>
-  <si>
-    <t>Testar API de chat</t>
-  </si>
-  <si>
-    <t>Testar Inserção de dados no BD via API</t>
-  </si>
-  <si>
-    <t>Testar Integração</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>Documentar o que foi definido</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>Documentar custos e funcionalidaes</t>
   </si>
   <si>
@@ -158,10 +98,19 @@
     <t>Publicar Aplicativo na Playstore</t>
   </si>
   <si>
-    <t>TOTAL DE DIAS UTILIZADOS PARA DESENVOLVIMENTO DO PROJETO</t>
-  </si>
-  <si>
     <t>Integrar API com Frontend</t>
+  </si>
+  <si>
+    <t>Predecessora</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TOTAL DE DIAS UTILIZADOS PARA DESENVOLVIMENTO</t>
+  </si>
+  <si>
+    <t>G e H</t>
   </si>
 </sst>
 </file>
@@ -177,21 +126,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -284,6 +227,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -299,6 +255,71 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -308,145 +329,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -455,45 +344,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -776,285 +661,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5">
         <v>10</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="13">
         <v>1</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="11">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="11">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="11">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="11">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15">
-        <f>39+63</f>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="7">
+        <f>SUM(D2:D12)</f>
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
